--- a/Building Performance Model Assumptions/Structural Components_BRBF.xlsx
+++ b/Building Performance Model Assumptions/Structural Components_BRBF.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preetish\Desktop\Journal Paper\ATC-119\Online Appendix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preetish\Desktop\Research\Journal Paper\ATC-119\Online Appendix\Building Performance Model Assumptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E3DE7-BEBB-489D-8450-D91F2E64DEDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2CF120-1708-45B1-B4E1-BF4883D88EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="5355" windowWidth="11970" windowHeight="6480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Definitions" sheetId="2" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Floor</t>
   </si>
@@ -94,13 +95,181 @@
   </si>
   <si>
     <t>L4, L5, L12, L13, L20, L21, L28, L29, L36, L37</t>
+  </si>
+  <si>
+    <t>NISTR</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology Interagency Reports</t>
+  </si>
+  <si>
+    <t>East-West quantity per floor</t>
+  </si>
+  <si>
+    <t>North-South quantity per floor</t>
+  </si>
+  <si>
+    <t>Norm Qty</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology Normative Quantity estimation tool packaged with Federal Emergency Management Agency's  Performance Assessment Calculation Tool</t>
+  </si>
+  <si>
+    <t>Seismic Performance Prediction Program by Haselton Baker Risk Group</t>
+  </si>
+  <si>
+    <t>DS*</t>
+  </si>
+  <si>
+    <t>Damage State</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Repair Class (As defined below)</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>* DS1, DS2 and DS3 corresponds to damage state 1, 2 and 3 respectively for the component defined by a lognormal distribution</t>
+  </si>
+  <si>
+    <t>Repair Class Definitions (Source: REDi Guidelines)</t>
+  </si>
+  <si>
+    <t>Repair Class</t>
+  </si>
+  <si>
+    <t>Repair Description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Heavily damaged </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-structural</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> components which pose a risk to life-safety and must be repaired to achieve Re-occupancy. Consequently, these components must also be repaired to achieve Functional Recovery and Full Recovery, since by definition they follow Re-occupancy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Damaged </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>components which do not pose a "life-safety" risk or otherwise hinder Re-occupancy but must be repaired to achieve Functional Recovery. Consequently, the competent must all be prepaired to achieve Full Recovery, since by definition it follows Functional Recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimal or minor cosmetic damage to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>components which do not hinder Re-occupancy or Functional Recovery but must be repaired to achieve Full Recovery</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +296,60 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -200,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -213,14 +429,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +779,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D6CD1E-7719-41B9-8CC9-538502DD31FE}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>3</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -588,7 +960,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -620,7 +992,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
@@ -650,7 +1022,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
